--- a/biology/Zoologie/Cepora_nerissa/Cepora_nerissa.xlsx
+++ b/biology/Zoologie/Cepora_nerissa/Cepora_nerissa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cepora nerissa est une espèce d'insecte lépidoptère de la famille des Pieridae, de la sous-famille des Pierinae et du genre Cepora.
 </t>
@@ -511,88 +523,96 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cepora nerissa a été nommé par Johan Christian Fabricius en 1775.
-Nom vernaculaire
-Cepora nerissa se nomme  Common Gull en anglais[1].
-Sous-espèces
-Cepora nerissa nerissa
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepora nerissa a été nommé par Johan Christian Fabricius en 1775.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepora nerissa se nomme  Common Gull en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cepora nerissa nerissa
 Cepora nerissa cibyra Fruhstorfer;
-Cepora nerissa coronis (Cramer, [1775])
+Cepora nerissa coronis (Cramer, )
 Cepora nerissa corva (Wallace, 1867)
-Cepora nerissa dapha (Moore, [1879])
+Cepora nerissa dapha (Moore, )
 Cepora nerissa evagete Cramer;
 Cepora nerissa lichenosa Moore;
 Cepora nerissa physkon Fruhstorfer;
 Cepora nerissa phryne Fabricius;
 Cepora nerissa sumatrana Hagen;
 Cepora nerissa vaso (Doherty, 1891);
-Cepora nerissa yunnanensis Mell[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cepora_nerissa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cepora_nerissa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est de couleur blanc verdâtre avec des veines largement soulignées de noir et une bordure noire aux antérieures.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cepora_nerissa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cepora_nerissa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Capparis dont Capparis cantoniensis[1].
-</t>
+Cepora nerissa yunnanensis Mell.</t>
         </is>
       </c>
     </row>
@@ -617,16 +637,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est de couleur blanc verdâtre avec des veines largement soulignées de noir et une bordure noire aux antérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Capparis dont Capparis cantoniensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Asie du Sud-Est, en Inde, en Birmanie, en Thaïlande, dans le nord du Vietnam, dans le sud de la Chine, à Taïwan, en Malaisie, à Sumatra et à Java[1].
-Biotope
-Il réside en de nombreux lieux mais préfère les espaces ouverts[2].
-Protection
-Il est assez commun.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du Sud-Est, en Inde, en Birmanie, en Thaïlande, dans le nord du Vietnam, dans le sud de la Chine, à Taïwan, en Malaisie, à Sumatra et à Java.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en de nombreux lieux mais préfère les espaces ouverts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_nerissa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est assez commun.
 </t>
         </is>
       </c>
